--- a/04_요구사항 분석/요건정의서_수정요.xlsx
+++ b/04_요구사항 분석/요건정의서_수정요.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungy\Documents\★_개인플젝\7차_쇼핑몰(1월2~4주)_Spring_기업제출\개인프로젝트\1_요구사항 분석\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171452F3-C312-4A5D-9A9D-BEEDC5968B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750A8CD-5E97-4135-924C-C8AA62EE3AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요건정의서" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="181">
   <si>
     <t>게스트프로파일(개인정보): REF</t>
   </si>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q&amp;A 게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 요건정의서 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +243,6 @@
   </si>
   <si>
     <t>고객이 등록한 Q&amp;A에 대한 답글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객과 관리자가 소통하는 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -747,6 +739,14 @@
   </si>
   <si>
     <t>취반교 문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 시큐리티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1437,18 +1437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,18 +1509,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1542,7 +1626,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,99 +1643,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1924,32 +1924,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I125"/>
+  <dimension ref="B2:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F86" sqref="F86"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="4" width="18.09765625" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="124.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="40" style="24" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="124.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-    </row>
-    <row r="4" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
         <v>40</v>
       </c>
@@ -1957,1558 +1959,1690 @@
         <v>36</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20">
         <v>4</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="1"/>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="1"/>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20">
         <v>6</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="60" t="s">
-        <v>87</v>
+      <c r="C11" s="88"/>
+      <c r="D11" s="91" t="s">
+        <v>85</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
         <v>8</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="60"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20">
         <v>9</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="61"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
         <v>10</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="61"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20">
         <v>11</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
         <v>12</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="88"/>
+      <c r="D16" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="88"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20">
         <v>14</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="88"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20">
         <v>15</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="88"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20">
         <v>16</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="1"/>
+      <c r="G20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
         <v>17</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="1"/>
+      <c r="G21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20">
         <v>18</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
         <v>19</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="1"/>
+      <c r="G23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20">
         <v>20</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="1" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20">
         <v>21</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="1" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="1"/>
+      <c r="G25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
         <v>22</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="60" t="s">
-        <v>97</v>
+      <c r="C26" s="88"/>
+      <c r="D26" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F26" s="9"/>
+      <c r="G26" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="20">
         <v>23</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="61"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="9"/>
+      <c r="G27" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20">
         <v>24</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="61"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="9"/>
+      <c r="G28" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="20">
         <v>25</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="61"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
         <v>26</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="61"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="21">
         <v>28</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="89"/>
+      <c r="D31" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="22">
         <v>29</v>
       </c>
-      <c r="C32" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="24" t="s">
+      <c r="C32" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20">
         <v>30</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="1" t="s">
+      <c r="C33" s="70"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20">
         <v>31</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="70"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20">
         <v>32</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="70"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20">
         <v>33</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="71"/>
+      <c r="D36" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="1"/>
+      <c r="G36" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20">
         <v>34</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="71"/>
+      <c r="D37" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="20">
         <v>35</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="71"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="20">
         <v>36</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="71"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20">
         <v>37</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="71"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="20">
         <v>38</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="62" t="s">
-        <v>69</v>
+      <c r="C41" s="71"/>
+      <c r="D41" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="20">
         <v>39</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="63" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F42" s="1"/>
+      <c r="G42" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="20">
         <v>40</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="71"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="20">
         <v>41</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="71"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="20">
         <v>42</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="71"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="20">
         <v>43</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="71"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="20">
         <v>44</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="71"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20">
         <v>45</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="71"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="20">
         <v>46</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="C49" s="71"/>
+      <c r="D49" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="1"/>
+      <c r="G49" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="20">
         <v>47</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="71"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="20">
         <v>48</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C51" s="71"/>
+      <c r="D51" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="20">
         <v>49</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="63" t="s">
+      <c r="C52" s="71"/>
+      <c r="D52" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E52" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="20">
         <v>50</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="71"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="20">
         <v>51</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="71"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="20">
         <v>52</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C55" s="71"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="20">
         <v>53</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="71"/>
+      <c r="D56" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="20">
         <v>54</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="71"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="20">
         <v>55</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C58" s="71"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="20">
         <v>56</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="71"/>
+      <c r="D59" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="20">
         <v>57</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C60" s="71"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20">
         <v>58</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C61" s="71"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="21">
         <v>59</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="72"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="23">
         <v>60</v>
       </c>
-      <c r="C63" s="72" t="s">
+      <c r="C63" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="65" t="s">
+      <c r="D63" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="66" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="67" spans="2:6" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="E63" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="66" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B67" s="77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C67" s="78"/>
       <c r="D67" s="78"/>
       <c r="E67" s="78"/>
-      <c r="F67" s="79"/>
-    </row>
-    <row r="68" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="40" t="s">
+      <c r="F67" s="78"/>
+      <c r="G67" s="79"/>
+    </row>
+    <row r="68" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E68" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="91">
+    <row r="69" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="64">
         <v>1</v>
       </c>
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="75" t="s">
+      <c r="D69" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="76"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="45">
+      <c r="F69" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="56"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="41">
         <v>2</v>
       </c>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" s="59"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="42">
+        <v>3</v>
+      </c>
+      <c r="C71" s="74"/>
+      <c r="D71" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="82"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="46">
+      <c r="E71" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" s="60"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="42">
+        <v>4</v>
+      </c>
+      <c r="C72" s="74"/>
+      <c r="D72" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" s="60"/>
+    </row>
+    <row r="73" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="43">
+        <v>5</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="39"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="41">
+        <v>6</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="59"/>
+    </row>
+    <row r="75" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="42">
+        <v>7</v>
+      </c>
+      <c r="C75" s="74"/>
+      <c r="D75" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="60"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="42">
+        <v>8</v>
+      </c>
+      <c r="C76" s="74"/>
+      <c r="D76" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="60"/>
+    </row>
+    <row r="77" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="43">
+        <v>9</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="39"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="41">
+        <v>10</v>
+      </c>
+      <c r="C78" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="59"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="42">
+        <v>11</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="D79" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="27"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="42">
+        <v>12</v>
+      </c>
+      <c r="C80" s="74"/>
+      <c r="D80" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="27"/>
+    </row>
+    <row r="81" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="43">
+        <v>13</v>
+      </c>
+      <c r="C81" s="76"/>
+      <c r="D81" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="41">
+        <v>14</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="59"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="42">
+        <v>15</v>
+      </c>
+      <c r="C83" s="74"/>
+      <c r="D83" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="60"/>
+    </row>
+    <row r="84" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="43">
+        <v>16</v>
+      </c>
+      <c r="C84" s="76"/>
+      <c r="D84" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="29"/>
+    </row>
+    <row r="85" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="41">
+        <v>17</v>
+      </c>
+      <c r="C85" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="59"/>
+    </row>
+    <row r="86" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="42">
+        <v>18</v>
+      </c>
+      <c r="C86" s="74"/>
+      <c r="D86" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="60"/>
+    </row>
+    <row r="87" spans="2:7" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="43">
+        <v>19</v>
+      </c>
+      <c r="C87" s="76"/>
+      <c r="D87" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="29"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="44">
+        <v>20</v>
+      </c>
+      <c r="C88" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="31"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="42">
+        <v>21</v>
+      </c>
+      <c r="C89" s="74"/>
+      <c r="D89" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="27"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="42">
+        <v>22</v>
+      </c>
+      <c r="C90" s="74"/>
+      <c r="D90" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="27"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="42">
+        <v>23</v>
+      </c>
+      <c r="C91" s="74"/>
+      <c r="D91" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="27"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="42">
+        <v>24</v>
+      </c>
+      <c r="C92" s="74"/>
+      <c r="D92" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="27"/>
+    </row>
+    <row r="93" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="43">
+        <v>25</v>
+      </c>
+      <c r="C93" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
+    </row>
+    <row r="96" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B96" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
+    </row>
+    <row r="97" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B97" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B98" s="40">
+        <v>1</v>
+      </c>
+      <c r="C98" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F71" s="83"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="46">
+      <c r="D98" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="40">
+        <v>2</v>
+      </c>
+      <c r="C99" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="40">
+        <v>3</v>
+      </c>
+      <c r="C100" s="82"/>
+      <c r="D100" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" s="48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="40">
         <v>4</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F72" s="83"/>
-    </row>
-    <row r="73" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="47">
+      <c r="C101" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G101" s="32"/>
+    </row>
+    <row r="102" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="40">
         <v>5</v>
       </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F73" s="43"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="45">
+      <c r="C102" s="81"/>
+      <c r="D102" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G102" s="32"/>
+    </row>
+    <row r="103" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="40">
         <v>6</v>
       </c>
-      <c r="C74" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="92"/>
-      <c r="F74" s="82"/>
-    </row>
-    <row r="75" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="46">
+      <c r="C103" s="81"/>
+      <c r="D103" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G103" s="32"/>
+    </row>
+    <row r="104" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="40">
         <v>7</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="73" t="s">
+      <c r="C104" s="81"/>
+      <c r="D104" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" s="32"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="40">
+        <v>8</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="48"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="40">
+        <v>9</v>
+      </c>
+      <c r="C106" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="47"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="40">
+        <v>10</v>
+      </c>
+      <c r="C107" s="81"/>
+      <c r="D107" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="48"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="40">
+        <v>11</v>
+      </c>
+      <c r="C108" s="81"/>
+      <c r="D108" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="48"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="40">
+        <v>12</v>
+      </c>
+      <c r="C109" s="81"/>
+      <c r="D109" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="48"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="40">
+        <v>13</v>
+      </c>
+      <c r="C110" s="81"/>
+      <c r="D110" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="48"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="40">
+        <v>14</v>
+      </c>
+      <c r="C111" s="81"/>
+      <c r="D111" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="47"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="40">
+        <v>15</v>
+      </c>
+      <c r="C112" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="47"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="40">
+        <v>16</v>
+      </c>
+      <c r="C113" s="81"/>
+      <c r="D113" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="47"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="40">
+        <v>17</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="47"/>
+    </row>
+    <row r="115" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="40">
+        <v>18</v>
+      </c>
+      <c r="C115" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="48"/>
+    </row>
+    <row r="116" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="40">
+        <v>19</v>
+      </c>
+      <c r="C116" s="81"/>
+      <c r="D116" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F75" s="83"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="46">
-        <v>8</v>
-      </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="83"/>
-    </row>
-    <row r="77" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="47">
-        <v>9</v>
-      </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="43"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="45">
-        <v>10</v>
-      </c>
-      <c r="C78" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="82"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="46">
-        <v>11</v>
-      </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="31"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="46">
-        <v>12</v>
-      </c>
-      <c r="C80" s="87"/>
-      <c r="D80" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="31"/>
-    </row>
-    <row r="81" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="47">
-        <v>13</v>
-      </c>
-      <c r="C81" s="88"/>
-      <c r="D81" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B82" s="45">
-        <v>14</v>
-      </c>
-      <c r="C82" s="86" t="s">
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="47"/>
+    </row>
+    <row r="117" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="40">
+        <v>20</v>
+      </c>
+      <c r="C117" s="81"/>
+      <c r="D117" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="40">
+        <v>21</v>
+      </c>
+      <c r="C118" s="81"/>
+      <c r="D118" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="47"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" s="40">
+        <v>22</v>
+      </c>
+      <c r="C119" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="47"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" s="40">
+        <v>23</v>
+      </c>
+      <c r="C120" s="81"/>
+      <c r="D120" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="47"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="40">
+        <v>24</v>
+      </c>
+      <c r="C121" s="81"/>
+      <c r="D121" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="47"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="40">
+        <v>25</v>
+      </c>
+      <c r="C122" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="48"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="40">
+        <v>26</v>
+      </c>
+      <c r="C123" s="81"/>
+      <c r="D123" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="30"/>
-      <c r="F82" s="82"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B83" s="46">
-        <v>15</v>
-      </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="83"/>
-    </row>
-    <row r="84" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="47">
-        <v>16</v>
-      </c>
-      <c r="C84" s="88"/>
-      <c r="D84" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33"/>
-    </row>
-    <row r="85" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="45">
-        <v>17</v>
-      </c>
-      <c r="C85" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="82"/>
-    </row>
-    <row r="86" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="46">
-        <v>18</v>
-      </c>
-      <c r="C86" s="87"/>
-      <c r="D86" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="83"/>
-    </row>
-    <row r="87" spans="2:6" s="28" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="47">
-        <v>19</v>
-      </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="48">
-        <v>20</v>
-      </c>
-      <c r="C88" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="34"/>
-      <c r="F88" s="35"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B89" s="46">
-        <v>21</v>
-      </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="31"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B90" s="46">
-        <v>22</v>
-      </c>
-      <c r="C90" s="87"/>
-      <c r="D90" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="31"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="46">
-        <v>23</v>
-      </c>
-      <c r="C91" s="87"/>
-      <c r="D91" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="31"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="46">
-        <v>24</v>
-      </c>
-      <c r="C92" s="87"/>
-      <c r="D92" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="31"/>
-    </row>
-    <row r="93" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="47">
-        <v>25</v>
-      </c>
-      <c r="C93" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="D93" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="32"/>
-      <c r="F93" s="33"/>
-    </row>
-    <row r="96" spans="2:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B96" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-    </row>
-    <row r="97" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B97" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B98" s="44">
-        <v>1</v>
-      </c>
-      <c r="C98" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="44">
-        <v>2</v>
-      </c>
-      <c r="C99" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B100" s="44">
-        <v>3</v>
-      </c>
-      <c r="C100" s="52"/>
-      <c r="D100" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F100" s="53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="44">
-        <v>4</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F101" s="36"/>
-    </row>
-    <row r="102" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="44">
-        <v>5</v>
-      </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F102" s="36"/>
-    </row>
-    <row r="103" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="44">
-        <v>6</v>
-      </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F103" s="36"/>
-    </row>
-    <row r="104" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="44">
-        <v>7</v>
-      </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F104" s="36"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="44">
-        <v>8</v>
-      </c>
-      <c r="C105" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E105" s="29"/>
-      <c r="F105" s="53"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B106" s="44">
-        <v>9</v>
-      </c>
-      <c r="C106" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" s="29"/>
-      <c r="F106" s="51"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B107" s="44">
-        <v>10</v>
-      </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E107" s="29"/>
-      <c r="F107" s="53"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B108" s="44">
-        <v>11</v>
-      </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="29"/>
-      <c r="F108" s="53"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B109" s="44">
-        <v>12</v>
-      </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109" s="29"/>
-      <c r="F109" s="53"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B110" s="44">
-        <v>13</v>
-      </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="53"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B111" s="44">
-        <v>14</v>
-      </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E111" s="29"/>
-      <c r="F111" s="51"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B112" s="44">
-        <v>15</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" s="29"/>
-      <c r="F112" s="51"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B113" s="44">
-        <v>16</v>
-      </c>
-      <c r="C113" s="26"/>
-      <c r="D113" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E113" s="29"/>
-      <c r="F113" s="51"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B114" s="44">
-        <v>17</v>
-      </c>
-      <c r="C114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="29"/>
-      <c r="F114" s="51"/>
-    </row>
-    <row r="115" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="44">
-        <v>18</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" s="29"/>
-      <c r="F115" s="53"/>
-    </row>
-    <row r="116" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="44">
-        <v>19</v>
-      </c>
-      <c r="C116" s="26"/>
-      <c r="D116" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" s="29"/>
-      <c r="F116" s="51"/>
-    </row>
-    <row r="117" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B117" s="44">
-        <v>20</v>
-      </c>
-      <c r="C117" s="26"/>
-      <c r="D117" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="29"/>
-      <c r="F117" s="51"/>
-    </row>
-    <row r="118" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="44">
-        <v>21</v>
-      </c>
-      <c r="C118" s="26"/>
-      <c r="D118" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E118" s="29"/>
-      <c r="F118" s="51"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B119" s="44">
-        <v>22</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E119" s="29"/>
-      <c r="F119" s="51"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B120" s="44">
-        <v>23</v>
-      </c>
-      <c r="C120" s="26"/>
-      <c r="D120" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E120" s="29"/>
-      <c r="F120" s="51"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B121" s="44">
-        <v>24</v>
-      </c>
-      <c r="C121" s="26"/>
-      <c r="D121" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E121" s="29"/>
-      <c r="F121" s="51"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B122" s="44">
-        <v>25</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" s="29"/>
-      <c r="F122" s="53"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B123" s="44">
-        <v>26</v>
-      </c>
-      <c r="C123" s="26"/>
-      <c r="D123" s="29" t="s">
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="47"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="40">
+        <v>27</v>
+      </c>
+      <c r="C124" s="81"/>
+      <c r="D124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="47"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="40">
+        <v>28</v>
+      </c>
+      <c r="C125" s="81"/>
+      <c r="D125" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E123" s="29"/>
-      <c r="F123" s="51"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B124" s="44">
-        <v>27</v>
-      </c>
-      <c r="C124" s="26"/>
-      <c r="D124" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E124" s="29"/>
-      <c r="F124" s="51"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B125" s="44">
-        <v>28</v>
-      </c>
-      <c r="C125" s="26"/>
-      <c r="D125" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E125" s="29"/>
-      <c r="F125" s="51"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="C32:C62"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C119:C121"/>
     <mergeCell ref="C122:C125"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="C106:C111"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="C5:C31"/>
     <mergeCell ref="D37:D40"/>
     <mergeCell ref="D11:D15"/>
@@ -3517,6 +3651,24 @@
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D26:D30"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="C32:C62"/>
+    <mergeCell ref="D32:D35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
